--- a/doc/devices_batchs_export_20180111_1.xlsx
+++ b/doc/devices_batchs_export_20180111_1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\dk-lock\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26220" windowHeight="11100"/>
+    <workbookView xWindow="1125" yWindow="0" windowWidth="26220" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>0018131408143929</t>
   </si>
   <si>
-    <t>0063728651445674</t>
-  </si>
-  <si>
     <t>车位编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +120,10 @@
   </si>
   <si>
     <t>sh00014</t>
+  </si>
+  <si>
+    <t>是否使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -494,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,10 +514,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -527,10 +531,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -541,10 +545,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -555,10 +559,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -569,10 +573,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -583,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -597,10 +601,10 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -611,10 +615,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -625,10 +629,10 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -639,10 +643,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -653,10 +657,10 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -667,10 +671,10 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -681,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -695,21 +699,21 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>63728651445674</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
